--- a/biology/Zoologie/Hachette_(papillon)/Hachette_(papillon).xlsx
+++ b/biology/Zoologie/Hachette_(papillon)/Hachette_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aglia tau
 La Hachette, Aglia tau, est un lépidoptère (papillon) appartenant à la famille des Saturniidae, à la sous-famille des Agliinae qui ne comporte que le genre Aglia .
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Imago
-Aglia tau
+          <t>Imago</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aglia tau
 			Mâle, face dorsale MHNT
 			Mâle, face ventrale MHNT
 			Femelle, face dorsale MHNT
@@ -525,8 +542,43 @@
 			Mâle, face ventrale MHNT
 			Femelle, face dorsale MHNT
 			Femelle, face ventrale MHNT
-Envergure du mâle : de 28 à 36 mm. La femelle est plus grande, de coloration plus claire. Dans les deux sexes, les ailes sont relevées et jointes au repos à la manière des rhopalocères.
-Chenille et chrysalide
+Envergure du mâle : de 28 à 36 mm. La femelle est plus grande, de coloration plus claire. Dans les deux sexes, les ailes sont relevées et jointes au repos à la manière des rhopalocères.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Chenille stade I
 			Chenille stade II
 			Chenille stade III
@@ -536,31 +588,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Hachette_(papillon)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 de l’ouest de l’Europe à l’Iran. En France, presque partout sauf dans les régions de basse altitude du sud.
@@ -569,37 +623,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hachette_(papillon)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Période de vol : de mars à juin jusqu’à 1 600 m. Le mâle vole le jour et la femelle la nuit.
-Plantes-hôtes : Fagus, Quercus, Betula, Corylus, Carpinus, etc.</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -621,16 +644,120 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Période de vol : de mars à juin jusqu’à 1 600 m. Le mâle vole le jour et la femelle la nuit.
+Plantes-hôtes : Fagus, Quercus, Betula, Corylus, Carpinus, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Aglia tau a été décrite  par le naturaliste suédois Carl von Linné en 1758[1].
-Synonymie
-Phalaena Bombyx Tau Linnaeus, 1758 Protonyme
-Taxinomie
-Liste des sous-espèces
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aglia tau a été décrite  par le naturaliste suédois Carl von Linné en 1758.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phalaena Bombyx Tau Linnaeus, 1758 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hachette_(papillon)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Aliga tau tau (Linné, 1758)
 Aglia tau ab. ferenigra Thierry-Mieg, 1884
 Aglia tau ab. melaina Gross, 1898
